--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,81 +55,81 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -139,64 +139,67 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>free</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
+    <t>strong</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>friends</t>
   </si>
   <si>
     <t>hand</t>
@@ -205,118 +208,112 @@
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>san</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -677,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +685,7 @@
         <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -820,13 +817,13 @@
         <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +867,13 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -970,13 +967,13 @@
         <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.72</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.72</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1093,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6815068493150684</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1114,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5666666666666667</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5652173913043478</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5128205128205128</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4871794871794872</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4193548387096774</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.746031746031746</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1488,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4054054054054054</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K18">
-        <v>0.7358490566037735</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M18">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1538,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1546,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.7125</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1596,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3892617449664429</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K20">
-        <v>0.6842105263157895</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1646,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3725490196078431</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1664,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.70625</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1688,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1696,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3611111111111111</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1714,31 +1711,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L22">
+        <v>63</v>
+      </c>
+      <c r="M22">
+        <v>63</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>31</v>
-      </c>
-      <c r="M22">
-        <v>31</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1746,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3527131782945737</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C23">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1764,19 +1761,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1788,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1796,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3220338983050847</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1814,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6005221932114883</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1838,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>153</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1846,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3090909090909091</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1864,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1888,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1896,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3068783068783069</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1914,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1946,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.288135593220339</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1964,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K27">
-        <v>0.5925925925925926</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1988,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1996,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2777777777777778</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2014,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K28">
-        <v>0.5833333333333334</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2038,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2046,13 +2043,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2597402597402597</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2064,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K29">
-        <v>0.5823529411764706</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2088,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2096,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2549019607843137</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2114,19 +2111,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K30">
-        <v>0.5730337078651685</v>
+        <v>0.55</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2138,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2146,37 +2143,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2531645569620253</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2188,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2196,13 +2193,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2103174603174603</v>
+        <v>0.2</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2214,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K32">
-        <v>0.5348837209302325</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2238,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2246,13 +2243,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1206434316353887</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2264,19 +2261,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K33">
-        <v>0.5288135593220339</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L33">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2288,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2296,13 +2293,13 @@
         <v>71</v>
       </c>
       <c r="K34">
-        <v>0.5068493150684932</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2314,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2322,13 +2319,13 @@
         <v>72</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2340,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,13 +2345,13 @@
         <v>73</v>
       </c>
       <c r="K36">
-        <v>0.4895397489539749</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L36">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2366,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2374,13 +2371,13 @@
         <v>74</v>
       </c>
       <c r="K37">
-        <v>0.4769230769230769</v>
+        <v>0.4769874476987448</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2392,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2400,13 +2397,13 @@
         <v>75</v>
       </c>
       <c r="K38">
-        <v>0.4411764705882353</v>
+        <v>0.453125</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2418,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2426,13 +2423,13 @@
         <v>76</v>
       </c>
       <c r="K39">
-        <v>0.425</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2444,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2452,13 +2449,13 @@
         <v>77</v>
       </c>
       <c r="K40">
-        <v>0.40625</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2470,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2478,13 +2475,13 @@
         <v>78</v>
       </c>
       <c r="K41">
-        <v>0.4042553191489361</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2496,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2504,13 +2501,13 @@
         <v>79</v>
       </c>
       <c r="K42">
-        <v>0.3974358974358974</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2522,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2530,13 +2527,13 @@
         <v>80</v>
       </c>
       <c r="K43">
-        <v>0.3857142857142857</v>
+        <v>0.35</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2548,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2556,13 +2553,13 @@
         <v>81</v>
       </c>
       <c r="K44">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2574,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2582,13 +2579,13 @@
         <v>82</v>
       </c>
       <c r="K45">
-        <v>0.3571428571428572</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2608,13 +2605,13 @@
         <v>83</v>
       </c>
       <c r="K46">
-        <v>0.3278688524590164</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2626,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2634,13 +2631,13 @@
         <v>84</v>
       </c>
       <c r="K47">
-        <v>0.2203389830508475</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2652,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2660,13 +2657,13 @@
         <v>85</v>
       </c>
       <c r="K48">
-        <v>0.1944444444444444</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2678,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>58</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2686,13 +2683,13 @@
         <v>86</v>
       </c>
       <c r="K49">
-        <v>0.1417322834645669</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2704,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2712,25 +2709,25 @@
         <v>87</v>
       </c>
       <c r="K50">
-        <v>0.1230769230769231</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>114</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2738,13 +2735,13 @@
         <v>88</v>
       </c>
       <c r="K51">
-        <v>0.1220095693779904</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2756,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>367</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2764,13 +2761,13 @@
         <v>89</v>
       </c>
       <c r="K52">
-        <v>0.09134615384615384</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L52">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>378</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2790,25 +2787,25 @@
         <v>90</v>
       </c>
       <c r="K53">
-        <v>0.06823266219239374</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="L53">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>833</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2816,25 +2813,25 @@
         <v>91</v>
       </c>
       <c r="K54">
-        <v>0.06572769953051644</v>
+        <v>0.06599552572706935</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>199</v>
+        <v>835</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2842,13 +2839,13 @@
         <v>92</v>
       </c>
       <c r="K55">
-        <v>0.06511627906976744</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2860,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>201</v>
+        <v>854</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2868,25 +2865,25 @@
         <v>93</v>
       </c>
       <c r="K56">
-        <v>0.05438401775804662</v>
+        <v>0.0460122699386503</v>
       </c>
       <c r="L56">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>852</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2894,25 +2891,25 @@
         <v>94</v>
       </c>
       <c r="K57">
-        <v>0.04587155963302753</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>312</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2920,25 +2917,25 @@
         <v>95</v>
       </c>
       <c r="K58">
-        <v>0.04046242774566474</v>
+        <v>0.03497942386831276</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>830</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2946,25 +2943,25 @@
         <v>96</v>
       </c>
       <c r="K59">
-        <v>0.03858024691358024</v>
+        <v>0.03460207612456748</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>623</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2972,25 +2969,25 @@
         <v>97</v>
       </c>
       <c r="K60">
-        <v>0.03320860617399439</v>
+        <v>0.03412809724170173</v>
       </c>
       <c r="L60">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M60">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N60">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2998,25 +2995,25 @@
         <v>98</v>
       </c>
       <c r="K61">
-        <v>0.03292181069958848</v>
+        <v>0.01964839710444674</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>470</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3024,19 +3021,19 @@
         <v>99</v>
       </c>
       <c r="K62">
-        <v>0.01677960632462085</v>
+        <v>0.01614465611882467</v>
       </c>
       <c r="L62">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M62">
         <v>60</v>
       </c>
       <c r="N62">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="O62">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -3050,51 +3047,25 @@
         <v>100</v>
       </c>
       <c r="K63">
-        <v>0.01656314699792961</v>
+        <v>0.007834534628643058</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N63">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="O63">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K64">
-        <v>0.008135168961201502</v>
-      </c>
-      <c r="L64">
-        <v>26</v>
-      </c>
-      <c r="M64">
-        <v>31</v>
-      </c>
-      <c r="N64">
-        <v>0.84</v>
-      </c>
-      <c r="O64">
-        <v>0.16</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>3170</v>
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
